--- a/LightNet参数说明文档.xlsx
+++ b/LightNet参数说明文档.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="207">
   <si>
     <t>opts</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -547,19 +547,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>每个用户推荐准确率（5*day矩阵）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试样例推荐正确与否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastMiniBatchError</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[TOP5]列向量，当天推荐错误率；LastMiniBatchError行均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录输入的测试序列（每次推荐）的推荐错误率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>watchorder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myOutput</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录当前测试集对应完整测试序列的原始下标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时，计算对每个序列中最后一个频道的预测，即err的第n_frame列推荐结果错误率，对应存入LastMiniBatchError</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每组测试样例对应原始序列的索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>prediction(user*day cell)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每个用户推荐准确率（5*day矩阵）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试样例推荐正确与否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出结果</t>
+    <t>tprediction（user*day cell）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recommchannel(user*day cell)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datasetorder（user*day cell）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时预测结果（暂无意义）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐的频道序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUI数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -567,35 +627,164 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每组测试样例对应原始序列的索引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LastMiniBatchError</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[TOP5]列向量，当天推荐错误率；LastMiniBatchError行均值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录输入的测试序列（每次推荐）的推荐错误率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>watchorder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>myOutput</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录当前测试集对应完整测试序列的原始下标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>临时，计算对每个序列中最后一个频道的预测，即err的第n_frame列推荐结果错误率，对应存入LastMiniBatchError</t>
+    <t>handles.SingleUserResult</t>
+  </si>
+  <si>
+    <t>ResultUserID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newResultUserID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>映射到结果集对应编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResultDayID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gui输入，原始用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gui输入，原始测试天编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newResultDayID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SingleDayResult.datasetorder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SingleDayResult.recommchannel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SingleDayResult.TotalChanNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SingleDayResult.RecommChanNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SingleDayResult.AcceptedChanNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SingleDayResult.acc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SingleDayResult.recall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SingleDayResult.recommchannelLine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SingleDayResult.datasetorderLine</t>
+  </si>
+  <si>
+    <t>实际频道曲线句柄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐频道曲线句柄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户的原始观看频道序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当天实际观看频道序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当天推荐预测频道序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐频道（次）数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中频道（次）数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当天准确率(5*1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当天召回率(5*1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总观看频道个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>handles.myGUIdata</t>
+  </si>
+  <si>
+    <t>inputDir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outputDir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserIDBegin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserIDEnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>windows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seqlength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>network_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_epoch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outputFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出文件路径名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练起始用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练结束用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch_size</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -627,7 +816,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -789,113 +978,190 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1204,7 +1470,7 @@
   <dimension ref="B1:I70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+      <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.7265625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1214,7 +1480,8 @@
     <col min="3" max="3" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.90625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="23.7265625" style="1"/>
+    <col min="6" max="6" width="23.7265625" style="1"/>
+    <col min="7" max="7" width="29.81640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="41.81640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="62.90625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="23.7265625" style="1"/>
@@ -1222,821 +1489,1009 @@
   <sheetData>
     <row r="1" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="5" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="5" t="s">
+      <c r="H2" s="25"/>
+      <c r="I2" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="26"/>
-      <c r="C4" s="33" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="31"/>
+      <c r="E4" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="7" t="s">
+      <c r="G4" s="27"/>
+      <c r="H4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="3"/>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="26"/>
-      <c r="C5" s="33" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="7" t="s">
+      <c r="D5" s="31"/>
+      <c r="E5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="7" t="s">
+      <c r="G5" s="27"/>
+      <c r="H5" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="26"/>
-      <c r="C6" s="33" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="31"/>
+      <c r="E6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="7" t="s">
+      <c r="G6" s="27"/>
+      <c r="H6" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="26"/>
-      <c r="C7" s="33" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="7" t="s">
+      <c r="D7" s="31"/>
+      <c r="E7" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="7" t="s">
+      <c r="G7" s="27"/>
+      <c r="H7" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="26"/>
-      <c r="C8" s="33" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="7" t="s">
+      <c r="D8" s="31"/>
+      <c r="E8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="7" t="s">
+      <c r="G8" s="27"/>
+      <c r="H8" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="I8" s="3"/>
+      <c r="I8" s="2"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="26"/>
-      <c r="C9" s="33" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="7" t="s">
+      <c r="D9" s="31"/>
+      <c r="E9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="7" t="s">
+      <c r="G9" s="27"/>
+      <c r="H9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="3"/>
+      <c r="I9" s="2"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="26"/>
-      <c r="C10" s="33" t="s">
+      <c r="B10" s="22"/>
+      <c r="C10" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="7" t="s">
+      <c r="D10" s="31"/>
+      <c r="E10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="7" t="s">
+      <c r="G10" s="27"/>
+      <c r="H10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="3"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="26"/>
-      <c r="C11" s="33" t="s">
+      <c r="B11" s="22"/>
+      <c r="C11" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="7" t="s">
+      <c r="D11" s="31"/>
+      <c r="E11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="7" t="s">
+      <c r="G11" s="27"/>
+      <c r="H11" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="3"/>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="26"/>
-      <c r="C12" s="33" t="s">
+      <c r="B12" s="22"/>
+      <c r="C12" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="7" t="s">
+      <c r="D12" s="31"/>
+      <c r="E12" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="8" t="s">
+      <c r="G12" s="28"/>
+      <c r="H12" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="4"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="26"/>
-      <c r="C13" s="33" t="s">
+      <c r="B13" s="22"/>
+      <c r="C13" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="7" t="s">
+      <c r="D13" s="31"/>
+      <c r="E13" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="26"/>
-      <c r="C14" s="33" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="7" t="s">
+      <c r="D14" s="31"/>
+      <c r="E14" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="26"/>
-      <c r="C15" s="33" t="s">
+      <c r="B15" s="22"/>
+      <c r="C15" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="7" t="s">
+      <c r="D15" s="31"/>
+      <c r="E15" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="26"/>
-      <c r="C16" s="33" t="s">
+      <c r="B16" s="22"/>
+      <c r="C16" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="7" t="s">
+      <c r="D16" s="31"/>
+      <c r="E16" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="26"/>
-      <c r="C17" s="33" t="s">
+      <c r="B17" s="22"/>
+      <c r="C17" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="7" t="s">
+      <c r="D17" s="31"/>
+      <c r="E17" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="26"/>
-      <c r="C18" s="33" t="s">
+      <c r="B18" s="22"/>
+      <c r="C18" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="7" t="s">
+      <c r="D18" s="31"/>
+      <c r="E18" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="26"/>
-      <c r="C19" s="33" t="s">
+      <c r="B19" s="22"/>
+      <c r="C19" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="7" t="s">
+      <c r="D19" s="31"/>
+      <c r="E19" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="G19" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H19" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="I19" s="14" t="s">
+      <c r="I19" s="11" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="26"/>
-      <c r="C20" s="33" t="s">
+      <c r="B20" s="22"/>
+      <c r="C20" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="7" t="s">
+      <c r="D20" s="31"/>
+      <c r="E20" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="G20" s="26"/>
-      <c r="H20" s="12" t="s">
+      <c r="G20" s="22"/>
+      <c r="H20" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="I20" s="9" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="26"/>
-      <c r="C21" s="33" t="s">
+      <c r="B21" s="22"/>
+      <c r="C21" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="7" t="s">
+      <c r="D21" s="31"/>
+      <c r="E21" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G21" s="27"/>
-      <c r="H21" s="22" t="s">
+      <c r="G21" s="23"/>
+      <c r="H21" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="I21" s="24"/>
+      <c r="I21" s="25"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="26"/>
-      <c r="C22" s="33" t="s">
+      <c r="B22" s="22"/>
+      <c r="C22" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="7" t="s">
+      <c r="D22" s="31"/>
+      <c r="E22" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="26"/>
-      <c r="C23" s="33" t="s">
+      <c r="B23" s="22"/>
+      <c r="C23" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="7" t="s">
+      <c r="D23" s="31"/>
+      <c r="E23" s="6" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="26"/>
-      <c r="C24" s="33" t="s">
+      <c r="B24" s="22"/>
+      <c r="C24" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="7" t="s">
+      <c r="D24" s="31"/>
+      <c r="E24" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="26"/>
-      <c r="C25" s="33" t="s">
+      <c r="B25" s="22"/>
+      <c r="C25" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="7" t="s">
+      <c r="D25" s="31"/>
+      <c r="E25" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="H25" s="29"/>
+      <c r="I25" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="H25" s="23"/>
-      <c r="I25" s="16" t="s">
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="22"/>
+      <c r="C26" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="31"/>
+      <c r="E26" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="22"/>
+      <c r="C27" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="31"/>
+      <c r="E27" s="22"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="22"/>
+      <c r="C28" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="31"/>
+      <c r="E28" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="27"/>
+      <c r="H28" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="22"/>
+      <c r="C29" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="31"/>
+      <c r="E29" s="22"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="22"/>
+      <c r="C30" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" s="31"/>
+      <c r="E30" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" s="27"/>
+      <c r="H30" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="22"/>
+      <c r="C31" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="31"/>
+      <c r="E31" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" s="28"/>
+      <c r="H31" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="22"/>
+      <c r="C32" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="31"/>
+      <c r="E32" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="22"/>
+      <c r="C33" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="31"/>
+      <c r="E33" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="22"/>
+      <c r="C34" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" s="31"/>
+      <c r="E34" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="22"/>
+      <c r="C35" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" s="31"/>
+      <c r="E35" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="22"/>
+      <c r="C36" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="31"/>
+      <c r="E36" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="22"/>
+      <c r="C37" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="31"/>
+      <c r="E37" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="22"/>
+      <c r="C38" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="31"/>
+      <c r="E38" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="22"/>
+      <c r="C39" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="31"/>
+      <c r="E39" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="22"/>
+      <c r="C40" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="31"/>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="2:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="22"/>
+      <c r="C41" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="31"/>
+      <c r="E41" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="22"/>
+      <c r="C42" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="31"/>
+      <c r="E42" s="6"/>
+      <c r="G42" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="H42" s="29"/>
+      <c r="I42" s="15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="22"/>
+      <c r="C43" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G43" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="H43" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="I43" s="16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="22"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G44" s="42"/>
+      <c r="H44" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="I44" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="22"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G45" s="42"/>
+      <c r="H45" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="I45" s="17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="22"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G46" s="42"/>
+      <c r="H46" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="I46" s="40" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="22"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G47" s="42"/>
+      <c r="H47" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="I47" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="22"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G48" s="42"/>
+      <c r="H48" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="I48" s="19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="22"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G49" s="42"/>
+      <c r="H49" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="I49" s="19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="22"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G50" s="42"/>
+      <c r="H50" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="I50" s="19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="22"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G51" s="42"/>
+      <c r="H51" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="I51" s="19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="22"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G52" s="42"/>
+      <c r="H52" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="I52" s="19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="22"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G53" s="42"/>
+      <c r="H53" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="I53" s="19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="22"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G54" s="42"/>
+      <c r="H54" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="I54" s="19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="22"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G55" s="43"/>
+      <c r="H55" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="22"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G56" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="H56" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="I56" s="20"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="22"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="E57" s="6"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="I57" s="19"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="22"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E58" s="6"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="I58" s="19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="22"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E59" s="7"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="I59" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" ht="28" x14ac:dyDescent="0.25">
+      <c r="B60" s="22"/>
+      <c r="C60" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G60" s="22"/>
+      <c r="H60" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="I60" s="19"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="22"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G61" s="22"/>
+      <c r="H61" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="I61" s="19"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="22"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G62" s="22"/>
+      <c r="H62" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="I62" s="19"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="22"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G63" s="22"/>
+      <c r="H63" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="I63" s="19"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="22"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G64" s="22"/>
+      <c r="H64" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="I64" s="19"/>
+    </row>
+    <row r="65" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="22"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G65" s="23"/>
+      <c r="H65" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="22"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="22"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="E67" s="9"/>
+    </row>
+    <row r="68" spans="2:9" ht="28" x14ac:dyDescent="0.25">
+      <c r="B68" s="22"/>
+      <c r="C68" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="D68" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="22"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="39" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="26"/>
-      <c r="C26" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="I26" s="17" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="26"/>
-      <c r="C27" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="26"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="26"/>
-      <c r="C28" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="G28" s="21"/>
-      <c r="H28" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="I28" s="18" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="26"/>
-      <c r="C29" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="26"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="26"/>
-      <c r="C30" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D30" s="28"/>
-      <c r="E30" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="26"/>
-      <c r="C31" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="28"/>
-      <c r="E31" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="26"/>
-      <c r="C32" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="26"/>
-      <c r="C33" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="26"/>
-      <c r="C34" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="26"/>
-      <c r="C35" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="26"/>
-      <c r="C36" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="26"/>
-      <c r="C37" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="28"/>
-      <c r="E37" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="26"/>
-      <c r="C38" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" s="28"/>
-      <c r="E38" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="26"/>
-      <c r="C39" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" s="28"/>
-      <c r="E39" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="26"/>
-      <c r="C40" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" s="28"/>
-      <c r="E40" s="7"/>
-    </row>
-    <row r="41" spans="2:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="B41" s="26"/>
-      <c r="C41" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D41" s="28"/>
-      <c r="E41" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="26"/>
-      <c r="C42" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="D42" s="28"/>
-      <c r="E42" s="7"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="26"/>
-      <c r="C43" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="26"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="26"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="26"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="26"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="26"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="26"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="26"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="26"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="26"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="26"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="26"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="26"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="26"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="26"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E57" s="7"/>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="26"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E58" s="7"/>
-    </row>
-    <row r="59" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="26"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E59" s="8"/>
-    </row>
-    <row r="60" spans="2:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="B60" s="26"/>
-      <c r="C60" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="26"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="26"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="26"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="26"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E64" s="3" t="s">
+      <c r="E69" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="23"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="37" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="26"/>
-      <c r="C65" s="33"/>
-      <c r="D65" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="26"/>
-      <c r="C66" s="33"/>
-      <c r="D66" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="26"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E67" s="11"/>
-    </row>
-    <row r="68" spans="2:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="B68" s="26"/>
-      <c r="C68" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="D68" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="E68" s="17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="26"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="E69" s="12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="27"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="15" t="s">
+      <c r="E70" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="E70" s="18" t="s">
-        <v>157</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="53">
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B3:B70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
+  <mergeCells count="56">
+    <mergeCell ref="G43:G55"/>
+    <mergeCell ref="G56:G65"/>
+    <mergeCell ref="C43:C59"/>
+    <mergeCell ref="C60:C67"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:G12"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="G26:G31"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
@@ -2053,27 +2508,21 @@
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C43:C59"/>
-    <mergeCell ref="C60:C67"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:G12"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B3:B70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LightNet参数说明文档.xlsx
+++ b/LightNet参数说明文档.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="254">
   <si>
     <t>opts</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -733,58 +733,246 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>inputDir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outputDir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserIDBegin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserIDEnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>windows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seqlength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>network_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_epoch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outputFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出文件路径名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练起始用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练结束用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SingleDayResult.prediction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当天推荐预测频道命中序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>频道命中曲线句柄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ValidSUR.ValidDayNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该用户有效测试天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ValidSUR.recomm5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试天数的推荐准确率曲线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ValidSUR.UserTotalChanNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有有效测试天数中总推荐频道次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有有效测试天数中总观看频道个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有有效测试天数中总采纳频道个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ValidSUR.UserRecommChanNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ValidSUR.UserAcceptedChanNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ValidSUR.Averacc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ValidSUR.Totalacc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ValidSUR.Averrecall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ValidSUR.Totalrecall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均acc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总acc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均recall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总recall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inputFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入文件路径名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_hidden_nodes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>channeltype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>channelFreqPercent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Averacc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>handles.AllResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Averrecall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Totalacc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Totalrecall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有用户平均acc分布曲线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有用户平均recall分布曲线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有用户汇总acc分布曲线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有用户汇总recall分布曲线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllAveracc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllAverrecall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllTotalacc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllTotalrecall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总平均acc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总平均recall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总汇总acc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总汇总recall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>handles.myGUIdata</t>
-  </si>
-  <si>
-    <t>inputDir</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>outputDir</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserIDBegin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserIDEnd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>windows</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seqlength</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>network_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n_epoch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>outputFile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出文件路径名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>训练起始用户编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>训练结束用户编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>batch_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息与下标中的handles.myGUIdata一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myGUIdata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>handles.consoleInfo</t>
+  </si>
+  <si>
+    <t>程序运行信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1022,8 +1210,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1032,7 +1222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1085,55 +1275,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1151,17 +1317,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1467,10 +1684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I70"/>
+  <dimension ref="B1:I89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I63" sqref="I63"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.7265625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1489,34 +1706,34 @@
   <sheetData>
     <row r="1" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="25"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="40"/>
       <c r="E2" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="25"/>
+      <c r="H2" s="40"/>
       <c r="I2" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="33"/>
+      <c r="D3" s="45"/>
       <c r="E3" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="41" t="s">
         <v>112</v>
       </c>
       <c r="H3" s="5" t="s">
@@ -1525,30 +1742,30 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="22"/>
-      <c r="C4" s="30" t="s">
+      <c r="B4" s="33"/>
+      <c r="C4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="31"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="27"/>
+      <c r="G4" s="42"/>
       <c r="H4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="22"/>
-      <c r="C5" s="30" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="31"/>
+      <c r="D5" s="44"/>
       <c r="E5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="27"/>
+      <c r="G5" s="42"/>
       <c r="H5" s="6" t="s">
         <v>109</v>
       </c>
@@ -1557,15 +1774,15 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="22"/>
-      <c r="C6" s="30" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="31"/>
+      <c r="D6" s="44"/>
       <c r="E6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="27"/>
+      <c r="G6" s="42"/>
       <c r="H6" s="6" t="s">
         <v>110</v>
       </c>
@@ -1574,15 +1791,15 @@
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="22"/>
-      <c r="C7" s="30" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="31"/>
+      <c r="D7" s="44"/>
       <c r="E7" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="G7" s="27"/>
+      <c r="G7" s="42"/>
       <c r="H7" s="6" t="s">
         <v>111</v>
       </c>
@@ -1591,150 +1808,150 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="22"/>
-      <c r="C8" s="30" t="s">
+      <c r="B8" s="33"/>
+      <c r="C8" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="31"/>
+      <c r="D8" s="44"/>
       <c r="E8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="27"/>
+      <c r="G8" s="42"/>
       <c r="H8" s="6" t="s">
         <v>113</v>
       </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="22"/>
-      <c r="C9" s="30" t="s">
+      <c r="B9" s="33"/>
+      <c r="C9" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="31"/>
+      <c r="D9" s="44"/>
       <c r="E9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="27"/>
+      <c r="G9" s="42"/>
       <c r="H9" s="6" t="s">
         <v>5</v>
       </c>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="22"/>
-      <c r="C10" s="30" t="s">
+      <c r="B10" s="33"/>
+      <c r="C10" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="31"/>
+      <c r="D10" s="44"/>
       <c r="E10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="27"/>
+      <c r="G10" s="42"/>
       <c r="H10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="22"/>
-      <c r="C11" s="30" t="s">
+      <c r="B11" s="33"/>
+      <c r="C11" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="31"/>
+      <c r="D11" s="44"/>
       <c r="E11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="27"/>
+      <c r="G11" s="42"/>
       <c r="H11" s="6" t="s">
         <v>64</v>
       </c>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="22"/>
-      <c r="C12" s="30" t="s">
+      <c r="B12" s="33"/>
+      <c r="C12" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="31"/>
+      <c r="D12" s="44"/>
       <c r="E12" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="28"/>
+      <c r="G12" s="43"/>
       <c r="H12" s="7" t="s">
         <v>65</v>
       </c>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="22"/>
-      <c r="C13" s="30" t="s">
+      <c r="B13" s="33"/>
+      <c r="C13" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="31"/>
+      <c r="D13" s="44"/>
       <c r="E13" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="22"/>
-      <c r="C14" s="30" t="s">
+      <c r="B14" s="33"/>
+      <c r="C14" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="31"/>
+      <c r="D14" s="44"/>
       <c r="E14" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="22"/>
-      <c r="C15" s="30" t="s">
+      <c r="B15" s="33"/>
+      <c r="C15" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="31"/>
+      <c r="D15" s="44"/>
       <c r="E15" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="22"/>
-      <c r="C16" s="30" t="s">
+      <c r="B16" s="33"/>
+      <c r="C16" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="31"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="22"/>
-      <c r="C17" s="30" t="s">
+      <c r="B17" s="33"/>
+      <c r="C17" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="31"/>
+      <c r="D17" s="44"/>
       <c r="E17" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="22"/>
-      <c r="C18" s="30" t="s">
+      <c r="B18" s="33"/>
+      <c r="C18" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="31"/>
+      <c r="D18" s="44"/>
       <c r="E18" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="22"/>
-      <c r="C19" s="30" t="s">
+      <c r="B19" s="33"/>
+      <c r="C19" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="31"/>
+      <c r="D19" s="44"/>
       <c r="E19" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="G19" s="32" t="s">
         <v>142</v>
       </c>
       <c r="H19" s="13" t="s">
@@ -1745,15 +1962,15 @@
       </c>
     </row>
     <row r="20" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="22"/>
-      <c r="C20" s="30" t="s">
+      <c r="B20" s="33"/>
+      <c r="C20" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="31"/>
+      <c r="D20" s="44"/>
       <c r="E20" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="G20" s="22"/>
+      <c r="G20" s="33"/>
       <c r="H20" s="10" t="s">
         <v>139</v>
       </c>
@@ -1762,292 +1979,299 @@
       </c>
     </row>
     <row r="21" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="22"/>
-      <c r="C21" s="30" t="s">
+      <c r="B21" s="33"/>
+      <c r="C21" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="31"/>
+      <c r="D21" s="44"/>
       <c r="E21" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="24" t="s">
+      <c r="G21" s="34"/>
+      <c r="H21" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="I21" s="25"/>
+      <c r="I21" s="40"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="22"/>
-      <c r="C22" s="30" t="s">
+      <c r="B22" s="33"/>
+      <c r="C22" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="31"/>
+      <c r="D22" s="44"/>
       <c r="E22" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="22"/>
-      <c r="C23" s="30" t="s">
+      <c r="B23" s="33"/>
+      <c r="C23" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="31"/>
+      <c r="D23" s="44"/>
       <c r="E23" s="6" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="22"/>
-      <c r="C24" s="30" t="s">
+      <c r="B24" s="33"/>
+      <c r="C24" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="31"/>
+      <c r="D24" s="44"/>
       <c r="E24" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="22"/>
-      <c r="C25" s="30" t="s">
+      <c r="B25" s="33"/>
+      <c r="C25" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="31"/>
+      <c r="D25" s="44"/>
       <c r="E25" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G25" s="24" t="s">
+      <c r="G25" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="H25" s="29"/>
+      <c r="H25" s="39"/>
       <c r="I25" s="12" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="22"/>
-      <c r="C26" s="30" t="s">
+      <c r="B26" s="33"/>
+      <c r="C26" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="31"/>
-      <c r="E26" s="22" t="s">
+      <c r="D26" s="44"/>
+      <c r="E26" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="G26" s="26" t="s">
+      <c r="G26" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="H26" s="16" t="s">
+      <c r="H26" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="I26" s="16" t="s">
+      <c r="I26" s="18" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="22"/>
-      <c r="C27" s="30" t="s">
+      <c r="B27" s="33"/>
+      <c r="C27" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="22"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="17" t="s">
+      <c r="D27" s="44"/>
+      <c r="E27" s="33"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="I27" s="17" t="s">
+      <c r="I27" s="19" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="22"/>
-      <c r="C28" s="30" t="s">
+      <c r="B28" s="33"/>
+      <c r="C28" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="22" t="s">
+      <c r="D28" s="44"/>
+      <c r="E28" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="G28" s="27"/>
-      <c r="H28" s="17" t="s">
+      <c r="G28" s="42"/>
+      <c r="H28" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="I28" s="17" t="s">
+      <c r="I28" s="19" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="22"/>
-      <c r="C29" s="30" t="s">
+      <c r="B29" s="33"/>
+      <c r="C29" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="22"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="17" t="s">
+      <c r="D29" s="44"/>
+      <c r="E29" s="33"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="I29" s="17" t="s">
+      <c r="I29" s="19" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="22"/>
-      <c r="C30" s="30" t="s">
+      <c r="B30" s="33"/>
+      <c r="C30" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="D30" s="31"/>
+      <c r="D30" s="44"/>
       <c r="E30" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G30" s="27"/>
-      <c r="H30" s="17" t="s">
+      <c r="G30" s="42"/>
+      <c r="H30" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="I30" s="17" t="s">
+      <c r="I30" s="19" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="22"/>
-      <c r="C31" s="30" t="s">
+      <c r="B31" s="33"/>
+      <c r="C31" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="31"/>
+      <c r="D31" s="44"/>
       <c r="E31" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G31" s="28"/>
-      <c r="H31" s="18" t="s">
+      <c r="G31" s="43"/>
+      <c r="H31" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="I31" s="18" t="s">
+      <c r="I31" s="20" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="22"/>
-      <c r="C32" s="30" t="s">
+    <row r="32" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="33"/>
+      <c r="C32" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="31"/>
+      <c r="D32" s="44"/>
       <c r="E32" s="6" t="s">
         <v>135</v>
       </c>
+      <c r="G32" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="H32" s="50"/>
+      <c r="I32" s="3" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="22"/>
-      <c r="C33" s="30" t="s">
+      <c r="B33" s="33"/>
+      <c r="C33" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="31"/>
+      <c r="D33" s="44"/>
       <c r="E33" s="6" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="22"/>
-      <c r="C34" s="30" t="s">
+      <c r="B34" s="33"/>
+      <c r="C34" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="D34" s="31"/>
+      <c r="D34" s="44"/>
       <c r="E34" s="6" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="22"/>
-      <c r="C35" s="30" t="s">
+      <c r="B35" s="33"/>
+      <c r="C35" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="D35" s="31"/>
+      <c r="D35" s="44"/>
       <c r="E35" s="6" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="22"/>
-      <c r="C36" s="30" t="s">
+      <c r="B36" s="33"/>
+      <c r="C36" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="31"/>
+      <c r="D36" s="44"/>
       <c r="E36" s="6" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="22"/>
-      <c r="C37" s="30" t="s">
+      <c r="B37" s="33"/>
+      <c r="C37" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="31"/>
+      <c r="D37" s="44"/>
       <c r="E37" s="6" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="22"/>
-      <c r="C38" s="30" t="s">
+      <c r="B38" s="33"/>
+      <c r="C38" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="31"/>
+      <c r="D38" s="44"/>
       <c r="E38" s="6" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="22"/>
-      <c r="C39" s="30" t="s">
+      <c r="B39" s="33"/>
+      <c r="C39" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="31"/>
+      <c r="D39" s="44"/>
       <c r="E39" s="6" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="22"/>
-      <c r="C40" s="30" t="s">
+      <c r="B40" s="33"/>
+      <c r="C40" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D40" s="31"/>
+      <c r="D40" s="44"/>
       <c r="E40" s="6"/>
     </row>
     <row r="41" spans="2:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="22"/>
-      <c r="C41" s="30" t="s">
+      <c r="B41" s="33"/>
+      <c r="C41" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D41" s="31"/>
+      <c r="D41" s="44"/>
       <c r="E41" s="6" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="42" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="22"/>
-      <c r="C42" s="30" t="s">
+      <c r="B42" s="33"/>
+      <c r="C42" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="D42" s="31"/>
+      <c r="D42" s="44"/>
       <c r="E42" s="6"/>
-      <c r="G42" s="24" t="s">
+      <c r="G42" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="H42" s="29"/>
+      <c r="H42" s="39"/>
       <c r="I42" s="15" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="22"/>
-      <c r="C43" s="32" t="s">
+      <c r="B43" s="33"/>
+      <c r="C43" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="D43" s="35" t="s">
+      <c r="D43" s="27" t="s">
         <v>64</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="G43" s="41" t="s">
+      <c r="G43" s="46" t="s">
         <v>166</v>
       </c>
       <c r="H43" s="16" t="s">
@@ -2058,15 +2282,15 @@
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="22"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="36" t="s">
+      <c r="B44" s="33"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="G44" s="42"/>
+      <c r="G44" s="47"/>
       <c r="H44" s="17" t="s">
         <v>168</v>
       </c>
@@ -2075,15 +2299,15 @@
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="22"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="36" t="s">
+      <c r="B45" s="33"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="28" t="s">
         <v>65</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G45" s="42"/>
+      <c r="G45" s="47"/>
       <c r="H45" s="17" t="s">
         <v>170</v>
       </c>
@@ -2091,51 +2315,51 @@
         <v>172</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="22"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="36" t="s">
+    <row r="46" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="33"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="28" t="s">
         <v>66</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G46" s="42"/>
-      <c r="H46" s="40" t="s">
+      <c r="G46" s="47"/>
+      <c r="H46" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="I46" s="40" t="s">
+      <c r="I46" s="19" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="22"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="36" t="s">
+      <c r="B47" s="33"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="28" t="s">
         <v>68</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="G47" s="42"/>
-      <c r="H47" s="17" t="s">
+      <c r="G47" s="47"/>
+      <c r="H47" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="I47" s="19" t="s">
+      <c r="I47" s="18" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="22"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="36" t="s">
+      <c r="B48" s="33"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="28" t="s">
         <v>69</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="G48" s="42"/>
-      <c r="H48" s="17" t="s">
+      <c r="G48" s="47"/>
+      <c r="H48" s="23" t="s">
         <v>175</v>
       </c>
       <c r="I48" s="19" t="s">
@@ -2143,355 +2367,550 @@
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="22"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="36" t="s">
+      <c r="B49" s="33"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="28" t="s">
         <v>71</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="G49" s="42"/>
-      <c r="H49" s="17" t="s">
-        <v>176</v>
+      <c r="G49" s="47"/>
+      <c r="H49" s="23" t="s">
+        <v>206</v>
       </c>
       <c r="I49" s="19" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="22"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="36" t="s">
+      <c r="B50" s="33"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="28" t="s">
         <v>76</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="G50" s="42"/>
-      <c r="H50" s="17" t="s">
-        <v>177</v>
+      <c r="G50" s="47"/>
+      <c r="H50" s="23" t="s">
+        <v>176</v>
       </c>
       <c r="I50" s="19" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="22"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="36" t="s">
+      <c r="B51" s="33"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="28" t="s">
         <v>77</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G51" s="42"/>
-      <c r="H51" s="17" t="s">
-        <v>178</v>
+      <c r="G51" s="47"/>
+      <c r="H51" s="23" t="s">
+        <v>177</v>
       </c>
       <c r="I51" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="22"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="36" t="s">
+      <c r="B52" s="33"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="28" t="s">
         <v>70</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G52" s="42"/>
-      <c r="H52" s="17" t="s">
-        <v>179</v>
+      <c r="G52" s="47"/>
+      <c r="H52" s="23" t="s">
+        <v>178</v>
       </c>
       <c r="I52" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="22"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="36" t="s">
+      <c r="B53" s="33"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="28" t="s">
         <v>72</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="G53" s="42"/>
-      <c r="H53" s="17" t="s">
-        <v>180</v>
+      <c r="G53" s="47"/>
+      <c r="H53" s="23" t="s">
+        <v>179</v>
       </c>
       <c r="I53" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="22"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="36" t="s">
+      <c r="B54" s="33"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="28" t="s">
         <v>73</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="G54" s="42"/>
-      <c r="H54" s="17" t="s">
-        <v>181</v>
+      <c r="G54" s="47"/>
+      <c r="H54" s="23" t="s">
+        <v>180</v>
       </c>
       <c r="I54" s="19" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="22"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="36" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="33"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="28" t="s">
         <v>74</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G55" s="43"/>
-      <c r="H55" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>183</v>
+      <c r="G55" s="47"/>
+      <c r="H55" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="I55" s="19" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="22"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="36" t="s">
+      <c r="B56" s="33"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="28" t="s">
         <v>75</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="G56" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="H56" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="I56" s="20"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="22"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="36" t="s">
+      <c r="G56" s="47"/>
+      <c r="H56" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="I56" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="33"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="28" t="s">
         <v>78</v>
       </c>
       <c r="E57" s="6"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="I57" s="19"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="I57" s="20" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="22"/>
-      <c r="C58" s="30"/>
-      <c r="D58" s="36" t="s">
+      <c r="B58" s="33"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="28" t="s">
         <v>79</v>
       </c>
       <c r="E58" s="6"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="I58" s="19" t="s">
-        <v>204</v>
+      <c r="G58" s="47"/>
+      <c r="H58" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="I58" s="25" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="59" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="22"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="37" t="s">
+      <c r="B59" s="33"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="29" t="s">
         <v>80</v>
       </c>
       <c r="E59" s="7"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="I59" s="19" t="s">
-        <v>205</v>
+      <c r="G59" s="47"/>
+      <c r="H59" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="I59" s="25" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="60" spans="2:9" ht="28" x14ac:dyDescent="0.25">
-      <c r="B60" s="22"/>
-      <c r="C60" s="30" t="s">
+      <c r="B60" s="33"/>
+      <c r="C60" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="D60" s="36" t="s">
+      <c r="D60" s="28" t="s">
         <v>82</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="G60" s="22"/>
-      <c r="H60" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="I60" s="19"/>
+      <c r="G60" s="47"/>
+      <c r="H60" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="I60" s="25" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="22"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="36" t="s">
+      <c r="B61" s="33"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="28" t="s">
         <v>84</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="G61" s="22"/>
-      <c r="H61" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="I61" s="19"/>
+      <c r="G61" s="47"/>
+      <c r="H61" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="I61" s="25" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="22"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="36" t="s">
+      <c r="B62" s="33"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="28" t="s">
         <v>83</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="G62" s="22"/>
-      <c r="H62" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="I62" s="19"/>
+      <c r="G62" s="47"/>
+      <c r="H62" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="I62" s="25" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="22"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="36" t="s">
+      <c r="B63" s="33"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="28" t="s">
         <v>85</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="G63" s="22"/>
-      <c r="H63" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="I63" s="19"/>
+      <c r="G63" s="47"/>
+      <c r="H63" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="I63" s="25" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="22"/>
-      <c r="C64" s="30"/>
-      <c r="D64" s="36" t="s">
+      <c r="B64" s="33"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="28" t="s">
         <v>86</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="G64" s="22"/>
-      <c r="H64" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="I64" s="19"/>
-    </row>
-    <row r="65" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="22"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="36" t="s">
+      <c r="G64" s="47"/>
+      <c r="H64" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="I64" s="25" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="33"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="28" t="s">
         <v>87</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G65" s="23"/>
-      <c r="H65" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="22"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="36" t="s">
+      <c r="G65" s="47"/>
+      <c r="H65" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="I65" s="25" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="33"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="28" t="s">
         <v>88</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>132</v>
       </c>
+      <c r="G66" s="48"/>
+      <c r="H66" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="I66" s="25" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="67" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="22"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="37" t="s">
+      <c r="B67" s="33"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="29" t="s">
         <v>89</v>
       </c>
       <c r="E67" s="9"/>
+      <c r="G67" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="H67" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="I67" s="26"/>
     </row>
     <row r="68" spans="2:9" ht="28" x14ac:dyDescent="0.25">
-      <c r="B68" s="22"/>
-      <c r="C68" s="26" t="s">
+      <c r="B68" s="33"/>
+      <c r="C68" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="D68" s="38" t="s">
+      <c r="D68" s="30" t="s">
         <v>37</v>
       </c>
       <c r="E68" s="13" t="s">
         <v>156</v>
       </c>
+      <c r="G68" s="52"/>
+      <c r="H68" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="I68" s="25"/>
     </row>
     <row r="69" spans="2:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="22"/>
-      <c r="C69" s="27"/>
-      <c r="D69" s="39" t="s">
+      <c r="B69" s="33"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="31" t="s">
         <v>150</v>
       </c>
       <c r="E69" s="10" t="s">
         <v>152</v>
       </c>
+      <c r="G69" s="52"/>
+      <c r="H69" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="I69" s="25" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="70" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="23"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="37" t="s">
+      <c r="B70" s="34"/>
+      <c r="C70" s="43"/>
+      <c r="D70" s="29" t="s">
         <v>153</v>
       </c>
       <c r="E70" s="14" t="s">
         <v>155</v>
       </c>
+      <c r="G70" s="52"/>
+      <c r="H70" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="I70" s="25" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G71" s="52"/>
+      <c r="H71" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="I71" s="25"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G72" s="52"/>
+      <c r="H72" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="I72" s="25"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G73" s="52"/>
+      <c r="H73" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="I73" s="25"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G74" s="52"/>
+      <c r="H74" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="I74" s="25"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G75" s="52"/>
+      <c r="H75" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="I75" s="25"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G76" s="52"/>
+      <c r="H76" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="I76" s="25"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G77" s="52"/>
+      <c r="H77" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="I77" s="25"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G78" s="52"/>
+      <c r="H78" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="I78" s="25"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G79" s="52"/>
+      <c r="H79" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="I79" s="25" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G80" s="49"/>
+      <c r="H80" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="81" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G81" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="H81" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="I81" s="26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="82" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G82" s="42"/>
+      <c r="H82" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I82" s="25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="83" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G83" s="42"/>
+      <c r="H83" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="I83" s="25" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="84" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G84" s="42"/>
+      <c r="H84" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="I84" s="25" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="85" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G85" s="42"/>
+      <c r="H85" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="I85" s="25" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="86" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G86" s="42"/>
+      <c r="H86" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="I86" s="25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="87" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G87" s="42"/>
+      <c r="H87" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="I87" s="25" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="88" spans="7:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G88" s="43"/>
+      <c r="H88" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="89" spans="7:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G89" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="H89" s="40"/>
+      <c r="I89" s="21" t="s">
+        <v>253</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="G43:G55"/>
-    <mergeCell ref="G56:G65"/>
-    <mergeCell ref="C43:C59"/>
-    <mergeCell ref="C60:C67"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:G12"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="G26:G31"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
+  <mergeCells count="58">
+    <mergeCell ref="G81:G88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B3:B70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="G43:G66"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
@@ -2508,21 +2927,30 @@
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B3:B70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C43:C59"/>
+    <mergeCell ref="C60:C67"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:G12"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="G26:G31"/>
+    <mergeCell ref="G67:G80"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LightNet参数说明文档.xlsx
+++ b/LightNet参数说明文档.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="255">
   <si>
     <t>opts</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -973,6 +973,10 @@
   </si>
   <si>
     <t>程序运行信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当可选推荐频道数少于需要推荐频道数时，将重复推荐相同频道号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1317,6 +1321,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1326,34 +1348,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1368,16 +1372,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1684,10 +1688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I89"/>
+  <dimension ref="B1:J89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E70"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.7265625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1701,39 +1705,40 @@
     <col min="7" max="7" width="29.81640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="41.81640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="62.90625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="23.7265625" style="1"/>
+    <col min="10" max="10" width="35.453125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="23.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="37"/>
       <c r="E2" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="40"/>
+      <c r="H2" s="37"/>
       <c r="I2" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="44" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="45"/>
       <c r="E3" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="33" t="s">
         <v>112</v>
       </c>
       <c r="H3" s="5" t="s">
@@ -1742,30 +1747,30 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="33"/>
-      <c r="C4" s="36" t="s">
+      <c r="B4" s="39"/>
+      <c r="C4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="44"/>
+      <c r="D4" s="43"/>
       <c r="E4" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="42"/>
+      <c r="G4" s="34"/>
       <c r="H4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="33"/>
-      <c r="C5" s="36" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="44"/>
+      <c r="D5" s="43"/>
       <c r="E5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="42"/>
+      <c r="G5" s="34"/>
       <c r="H5" s="6" t="s">
         <v>109</v>
       </c>
@@ -1774,15 +1779,15 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="33"/>
-      <c r="C6" s="36" t="s">
+      <c r="B6" s="39"/>
+      <c r="C6" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="44"/>
+      <c r="D6" s="43"/>
       <c r="E6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="42"/>
+      <c r="G6" s="34"/>
       <c r="H6" s="6" t="s">
         <v>110</v>
       </c>
@@ -1791,15 +1796,15 @@
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="33"/>
-      <c r="C7" s="36" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="44"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="G7" s="42"/>
+      <c r="G7" s="34"/>
       <c r="H7" s="6" t="s">
         <v>111</v>
       </c>
@@ -1808,150 +1813,150 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="33"/>
-      <c r="C8" s="36" t="s">
+      <c r="B8" s="39"/>
+      <c r="C8" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="44"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="42"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="6" t="s">
         <v>113</v>
       </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="33"/>
-      <c r="C9" s="36" t="s">
+      <c r="B9" s="39"/>
+      <c r="C9" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="44"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="42"/>
+      <c r="G9" s="34"/>
       <c r="H9" s="6" t="s">
         <v>5</v>
       </c>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="33"/>
-      <c r="C10" s="36" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="44"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="42"/>
+      <c r="G10" s="34"/>
       <c r="H10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="33"/>
-      <c r="C11" s="36" t="s">
+      <c r="B11" s="39"/>
+      <c r="C11" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="44"/>
+      <c r="D11" s="43"/>
       <c r="E11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="42"/>
+      <c r="G11" s="34"/>
       <c r="H11" s="6" t="s">
         <v>64</v>
       </c>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="33"/>
-      <c r="C12" s="36" t="s">
+      <c r="B12" s="39"/>
+      <c r="C12" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="44"/>
+      <c r="D12" s="43"/>
       <c r="E12" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="43"/>
+      <c r="G12" s="35"/>
       <c r="H12" s="7" t="s">
         <v>65</v>
       </c>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="33"/>
-      <c r="C13" s="36" t="s">
+      <c r="B13" s="39"/>
+      <c r="C13" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="44"/>
+      <c r="D13" s="43"/>
       <c r="E13" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="33"/>
-      <c r="C14" s="36" t="s">
+      <c r="B14" s="39"/>
+      <c r="C14" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="44"/>
+      <c r="D14" s="43"/>
       <c r="E14" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="33"/>
-      <c r="C15" s="36" t="s">
+      <c r="B15" s="39"/>
+      <c r="C15" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="44"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="33"/>
-      <c r="C16" s="36" t="s">
+      <c r="B16" s="39"/>
+      <c r="C16" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="44"/>
+      <c r="D16" s="43"/>
       <c r="E16" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="33"/>
-      <c r="C17" s="36" t="s">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="39"/>
+      <c r="C17" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="44"/>
+      <c r="D17" s="43"/>
       <c r="E17" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="33"/>
-      <c r="C18" s="36" t="s">
+    <row r="18" spans="2:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="39"/>
+      <c r="C18" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="44"/>
+      <c r="D18" s="43"/>
       <c r="E18" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="33"/>
-      <c r="C19" s="36" t="s">
+    <row r="19" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="39"/>
+      <c r="C19" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="44"/>
+      <c r="D19" s="43"/>
       <c r="E19" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="G19" s="32" t="s">
+      <c r="G19" s="38" t="s">
         <v>142</v>
       </c>
       <c r="H19" s="13" t="s">
@@ -1961,16 +1966,16 @@
         <v>138</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="33"/>
-      <c r="C20" s="36" t="s">
+    <row r="20" spans="2:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="39"/>
+      <c r="C20" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="44"/>
+      <c r="D20" s="43"/>
       <c r="E20" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="G20" s="33"/>
+      <c r="G20" s="39"/>
       <c r="H20" s="10" t="s">
         <v>139</v>
       </c>
@@ -1978,78 +1983,78 @@
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="33"/>
-      <c r="C21" s="36" t="s">
+    <row r="21" spans="2:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="39"/>
+      <c r="C21" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="44"/>
+      <c r="D21" s="43"/>
       <c r="E21" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G21" s="34"/>
-      <c r="H21" s="38" t="s">
+      <c r="G21" s="40"/>
+      <c r="H21" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="I21" s="40"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="33"/>
-      <c r="C22" s="36" t="s">
+      <c r="I21" s="37"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="39"/>
+      <c r="C22" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="44"/>
+      <c r="D22" s="43"/>
       <c r="E22" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="33"/>
-      <c r="C23" s="36" t="s">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="39"/>
+      <c r="C23" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="44"/>
+      <c r="D23" s="43"/>
       <c r="E23" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="33"/>
-      <c r="C24" s="36" t="s">
+    <row r="24" spans="2:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="39"/>
+      <c r="C24" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="44"/>
+      <c r="D24" s="43"/>
       <c r="E24" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="33"/>
-      <c r="C25" s="36" t="s">
+    <row r="25" spans="2:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="39"/>
+      <c r="C25" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="44"/>
+      <c r="D25" s="43"/>
       <c r="E25" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G25" s="38" t="s">
+      <c r="G25" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="H25" s="39"/>
+      <c r="H25" s="41"/>
       <c r="I25" s="12" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="33"/>
-      <c r="C26" s="36" t="s">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="39"/>
+      <c r="C26" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="44"/>
-      <c r="E26" s="33" t="s">
+      <c r="D26" s="43"/>
+      <c r="E26" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="G26" s="41" t="s">
+      <c r="G26" s="33" t="s">
         <v>143</v>
       </c>
       <c r="H26" s="18" t="s">
@@ -2059,14 +2064,14 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="33"/>
-      <c r="C27" s="36" t="s">
+    <row r="27" spans="2:10" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="39"/>
+      <c r="C27" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="44"/>
-      <c r="E27" s="33"/>
-      <c r="G27" s="42"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="39"/>
+      <c r="G27" s="34"/>
       <c r="H27" s="19" t="s">
         <v>145</v>
       </c>
@@ -2074,16 +2079,16 @@
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="33"/>
-      <c r="C28" s="36" t="s">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="39"/>
+      <c r="C28" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="44"/>
-      <c r="E28" s="33" t="s">
+      <c r="D28" s="43"/>
+      <c r="E28" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="G28" s="42"/>
+      <c r="G28" s="34"/>
       <c r="H28" s="19" t="s">
         <v>158</v>
       </c>
@@ -2091,14 +2096,14 @@
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="33"/>
-      <c r="C29" s="36" t="s">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="39"/>
+      <c r="C29" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="44"/>
-      <c r="E29" s="33"/>
-      <c r="G29" s="42"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="39"/>
+      <c r="G29" s="34"/>
       <c r="H29" s="19" t="s">
         <v>159</v>
       </c>
@@ -2106,33 +2111,36 @@
         <v>162</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="33"/>
-      <c r="C30" s="36" t="s">
+    <row r="30" spans="2:10" ht="28" x14ac:dyDescent="0.25">
+      <c r="B30" s="39"/>
+      <c r="C30" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="D30" s="44"/>
+      <c r="D30" s="43"/>
       <c r="E30" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G30" s="42"/>
+      <c r="G30" s="34"/>
       <c r="H30" s="19" t="s">
         <v>160</v>
       </c>
       <c r="I30" s="19" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="33"/>
-      <c r="C31" s="36" t="s">
+      <c r="J30" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="39"/>
+      <c r="C31" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="44"/>
+      <c r="D31" s="43"/>
       <c r="E31" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G31" s="43"/>
+      <c r="G31" s="35"/>
       <c r="H31" s="20" t="s">
         <v>161</v>
       </c>
@@ -2140,129 +2148,129 @@
         <v>185</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="33"/>
-      <c r="C32" s="36" t="s">
+    <row r="32" spans="2:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="39"/>
+      <c r="C32" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="44"/>
+      <c r="D32" s="43"/>
       <c r="E32" s="6" t="s">
         <v>135</v>
       </c>
       <c r="G32" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="H32" s="50"/>
+      <c r="H32" s="32"/>
       <c r="I32" s="3" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="33"/>
-      <c r="C33" s="36" t="s">
+      <c r="B33" s="39"/>
+      <c r="C33" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="44"/>
+      <c r="D33" s="43"/>
       <c r="E33" s="6" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="33"/>
-      <c r="C34" s="36" t="s">
+      <c r="B34" s="39"/>
+      <c r="C34" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="D34" s="44"/>
+      <c r="D34" s="43"/>
       <c r="E34" s="6" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="33"/>
-      <c r="C35" s="36" t="s">
+      <c r="B35" s="39"/>
+      <c r="C35" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="D35" s="44"/>
+      <c r="D35" s="43"/>
       <c r="E35" s="6" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="33"/>
-      <c r="C36" s="36" t="s">
+      <c r="B36" s="39"/>
+      <c r="C36" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="44"/>
+      <c r="D36" s="43"/>
       <c r="E36" s="6" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="33"/>
-      <c r="C37" s="36" t="s">
+      <c r="B37" s="39"/>
+      <c r="C37" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="44"/>
+      <c r="D37" s="43"/>
       <c r="E37" s="6" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="33"/>
-      <c r="C38" s="36" t="s">
+      <c r="B38" s="39"/>
+      <c r="C38" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="44"/>
+      <c r="D38" s="43"/>
       <c r="E38" s="6" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="33"/>
-      <c r="C39" s="36" t="s">
+      <c r="B39" s="39"/>
+      <c r="C39" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="44"/>
+      <c r="D39" s="43"/>
       <c r="E39" s="6" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="33"/>
-      <c r="C40" s="36" t="s">
+      <c r="B40" s="39"/>
+      <c r="C40" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D40" s="44"/>
+      <c r="D40" s="43"/>
       <c r="E40" s="6"/>
     </row>
     <row r="41" spans="2:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="33"/>
-      <c r="C41" s="36" t="s">
+      <c r="B41" s="39"/>
+      <c r="C41" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D41" s="44"/>
+      <c r="D41" s="43"/>
       <c r="E41" s="6" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="42" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="33"/>
-      <c r="C42" s="36" t="s">
+      <c r="B42" s="39"/>
+      <c r="C42" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="D42" s="44"/>
+      <c r="D42" s="43"/>
       <c r="E42" s="6"/>
-      <c r="G42" s="38" t="s">
+      <c r="G42" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="H42" s="39"/>
+      <c r="H42" s="41"/>
       <c r="I42" s="15" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="33"/>
-      <c r="C43" s="35" t="s">
+      <c r="B43" s="39"/>
+      <c r="C43" s="44" t="s">
         <v>81</v>
       </c>
       <c r="D43" s="27" t="s">
@@ -2282,8 +2290,8 @@
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="33"/>
-      <c r="C44" s="36"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="42"/>
       <c r="D44" s="28" t="s">
         <v>67</v>
       </c>
@@ -2299,8 +2307,8 @@
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="33"/>
-      <c r="C45" s="36"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="42"/>
       <c r="D45" s="28" t="s">
         <v>65</v>
       </c>
@@ -2316,8 +2324,8 @@
       </c>
     </row>
     <row r="46" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="33"/>
-      <c r="C46" s="36"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="42"/>
       <c r="D46" s="28" t="s">
         <v>66</v>
       </c>
@@ -2333,8 +2341,8 @@
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="33"/>
-      <c r="C47" s="36"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="42"/>
       <c r="D47" s="28" t="s">
         <v>68</v>
       </c>
@@ -2350,8 +2358,8 @@
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="33"/>
-      <c r="C48" s="36"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="42"/>
       <c r="D48" s="28" t="s">
         <v>69</v>
       </c>
@@ -2367,8 +2375,8 @@
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="33"/>
-      <c r="C49" s="36"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="42"/>
       <c r="D49" s="28" t="s">
         <v>71</v>
       </c>
@@ -2384,8 +2392,8 @@
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="33"/>
-      <c r="C50" s="36"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="42"/>
       <c r="D50" s="28" t="s">
         <v>76</v>
       </c>
@@ -2401,8 +2409,8 @@
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="33"/>
-      <c r="C51" s="36"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="42"/>
       <c r="D51" s="28" t="s">
         <v>77</v>
       </c>
@@ -2418,8 +2426,8 @@
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="33"/>
-      <c r="C52" s="36"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="42"/>
       <c r="D52" s="28" t="s">
         <v>70</v>
       </c>
@@ -2435,8 +2443,8 @@
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="33"/>
-      <c r="C53" s="36"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="42"/>
       <c r="D53" s="28" t="s">
         <v>72</v>
       </c>
@@ -2452,8 +2460,8 @@
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="33"/>
-      <c r="C54" s="36"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="42"/>
       <c r="D54" s="28" t="s">
         <v>73</v>
       </c>
@@ -2469,8 +2477,8 @@
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="33"/>
-      <c r="C55" s="36"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="42"/>
       <c r="D55" s="28" t="s">
         <v>74</v>
       </c>
@@ -2486,8 +2494,8 @@
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="33"/>
-      <c r="C56" s="36"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="42"/>
       <c r="D56" s="28" t="s">
         <v>75</v>
       </c>
@@ -2503,8 +2511,8 @@
       </c>
     </row>
     <row r="57" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="33"/>
-      <c r="C57" s="36"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="42"/>
       <c r="D57" s="28" t="s">
         <v>78</v>
       </c>
@@ -2518,8 +2526,8 @@
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="33"/>
-      <c r="C58" s="36"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="42"/>
       <c r="D58" s="28" t="s">
         <v>79</v>
       </c>
@@ -2533,8 +2541,8 @@
       </c>
     </row>
     <row r="59" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="33"/>
-      <c r="C59" s="37"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="49"/>
       <c r="D59" s="29" t="s">
         <v>80</v>
       </c>
@@ -2548,8 +2556,8 @@
       </c>
     </row>
     <row r="60" spans="2:9" ht="28" x14ac:dyDescent="0.25">
-      <c r="B60" s="33"/>
-      <c r="C60" s="36" t="s">
+      <c r="B60" s="39"/>
+      <c r="C60" s="42" t="s">
         <v>90</v>
       </c>
       <c r="D60" s="28" t="s">
@@ -2567,8 +2575,8 @@
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="33"/>
-      <c r="C61" s="36"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="42"/>
       <c r="D61" s="28" t="s">
         <v>84</v>
       </c>
@@ -2584,8 +2592,8 @@
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="33"/>
-      <c r="C62" s="36"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="42"/>
       <c r="D62" s="28" t="s">
         <v>83</v>
       </c>
@@ -2601,8 +2609,8 @@
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="33"/>
-      <c r="C63" s="36"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="42"/>
       <c r="D63" s="28" t="s">
         <v>85</v>
       </c>
@@ -2618,8 +2626,8 @@
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="33"/>
-      <c r="C64" s="36"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="42"/>
       <c r="D64" s="28" t="s">
         <v>86</v>
       </c>
@@ -2635,8 +2643,8 @@
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65" s="33"/>
-      <c r="C65" s="36"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="42"/>
       <c r="D65" s="28" t="s">
         <v>87</v>
       </c>
@@ -2652,8 +2660,8 @@
       </c>
     </row>
     <row r="66" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="33"/>
-      <c r="C66" s="36"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="42"/>
       <c r="D66" s="28" t="s">
         <v>88</v>
       </c>
@@ -2669,13 +2677,13 @@
       </c>
     </row>
     <row r="67" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="33"/>
-      <c r="C67" s="37"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="49"/>
       <c r="D67" s="29" t="s">
         <v>89</v>
       </c>
       <c r="E67" s="9"/>
-      <c r="G67" s="51" t="s">
+      <c r="G67" s="50" t="s">
         <v>249</v>
       </c>
       <c r="H67" s="18" t="s">
@@ -2684,8 +2692,8 @@
       <c r="I67" s="26"/>
     </row>
     <row r="68" spans="2:9" ht="28" x14ac:dyDescent="0.25">
-      <c r="B68" s="33"/>
-      <c r="C68" s="41" t="s">
+      <c r="B68" s="39"/>
+      <c r="C68" s="33" t="s">
         <v>154</v>
       </c>
       <c r="D68" s="30" t="s">
@@ -2694,22 +2702,22 @@
       <c r="E68" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="G68" s="52"/>
+      <c r="G68" s="51"/>
       <c r="H68" s="19" t="s">
         <v>194</v>
       </c>
       <c r="I68" s="25"/>
     </row>
     <row r="69" spans="2:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="33"/>
-      <c r="C69" s="42"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="34"/>
       <c r="D69" s="31" t="s">
         <v>150</v>
       </c>
       <c r="E69" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="G69" s="52"/>
+      <c r="G69" s="51"/>
       <c r="H69" s="19" t="s">
         <v>195</v>
       </c>
@@ -2718,15 +2726,15 @@
       </c>
     </row>
     <row r="70" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="34"/>
-      <c r="C70" s="43"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="35"/>
       <c r="D70" s="29" t="s">
         <v>153</v>
       </c>
       <c r="E70" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="G70" s="52"/>
+      <c r="G70" s="51"/>
       <c r="H70" s="19" t="s">
         <v>196</v>
       </c>
@@ -2735,63 +2743,63 @@
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G71" s="52"/>
+      <c r="G71" s="51"/>
       <c r="H71" s="19" t="s">
         <v>197</v>
       </c>
       <c r="I71" s="25"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G72" s="52"/>
+      <c r="G72" s="51"/>
       <c r="H72" s="19" t="s">
         <v>230</v>
       </c>
       <c r="I72" s="25"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G73" s="52"/>
+      <c r="G73" s="51"/>
       <c r="H73" s="19" t="s">
         <v>231</v>
       </c>
       <c r="I73" s="25"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G74" s="52"/>
+      <c r="G74" s="51"/>
       <c r="H74" s="19" t="s">
         <v>198</v>
       </c>
       <c r="I74" s="25"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G75" s="52"/>
+      <c r="G75" s="51"/>
       <c r="H75" s="19" t="s">
         <v>199</v>
       </c>
       <c r="I75" s="25"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G76" s="52"/>
+      <c r="G76" s="51"/>
       <c r="H76" s="19" t="s">
         <v>200</v>
       </c>
       <c r="I76" s="25"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G77" s="52"/>
+      <c r="G77" s="51"/>
       <c r="H77" s="19" t="s">
         <v>229</v>
       </c>
       <c r="I77" s="25"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G78" s="52"/>
+      <c r="G78" s="51"/>
       <c r="H78" s="19" t="s">
         <v>205</v>
       </c>
       <c r="I78" s="25"/>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G79" s="52"/>
+      <c r="G79" s="51"/>
       <c r="H79" s="19" t="s">
         <v>227</v>
       </c>
@@ -2800,7 +2808,7 @@
       </c>
     </row>
     <row r="80" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G80" s="49"/>
+      <c r="G80" s="52"/>
       <c r="H80" s="20" t="s">
         <v>201</v>
       </c>
@@ -2809,7 +2817,7 @@
       </c>
     </row>
     <row r="81" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G81" s="41" t="s">
+      <c r="G81" s="33" t="s">
         <v>233</v>
       </c>
       <c r="H81" s="18" t="s">
@@ -2820,7 +2828,7 @@
       </c>
     </row>
     <row r="82" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G82" s="42"/>
+      <c r="G82" s="34"/>
       <c r="H82" s="19" t="s">
         <v>234</v>
       </c>
@@ -2829,7 +2837,7 @@
       </c>
     </row>
     <row r="83" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G83" s="42"/>
+      <c r="G83" s="34"/>
       <c r="H83" s="19" t="s">
         <v>235</v>
       </c>
@@ -2838,7 +2846,7 @@
       </c>
     </row>
     <row r="84" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G84" s="42"/>
+      <c r="G84" s="34"/>
       <c r="H84" s="19" t="s">
         <v>236</v>
       </c>
@@ -2847,7 +2855,7 @@
       </c>
     </row>
     <row r="85" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G85" s="42"/>
+      <c r="G85" s="34"/>
       <c r="H85" s="19" t="s">
         <v>241</v>
       </c>
@@ -2856,7 +2864,7 @@
       </c>
     </row>
     <row r="86" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G86" s="42"/>
+      <c r="G86" s="34"/>
       <c r="H86" s="19" t="s">
         <v>242</v>
       </c>
@@ -2865,7 +2873,7 @@
       </c>
     </row>
     <row r="87" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G87" s="42"/>
+      <c r="G87" s="34"/>
       <c r="H87" s="19" t="s">
         <v>243</v>
       </c>
@@ -2874,7 +2882,7 @@
       </c>
     </row>
     <row r="88" spans="7:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G88" s="43"/>
+      <c r="G88" s="35"/>
       <c r="H88" s="20" t="s">
         <v>244</v>
       </c>
@@ -2883,59 +2891,16 @@
       </c>
     </row>
     <row r="89" spans="7:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G89" s="38" t="s">
+      <c r="G89" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="H89" s="40"/>
+      <c r="H89" s="37"/>
       <c r="I89" s="21" t="s">
         <v>253</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="G81:G88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B3:B70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="G43:G66"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
     <mergeCell ref="C43:C59"/>
     <mergeCell ref="C60:C67"/>
     <mergeCell ref="B2:D2"/>
@@ -2951,6 +2916,49 @@
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="G26:G31"/>
     <mergeCell ref="G67:G80"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="B3:B70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="G81:G88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G43:G66"/>
+    <mergeCell ref="G42:H42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
